--- a/docs/preproduction/medias/Budget.xlsx
+++ b/docs/preproduction/medias/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sounthida\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\olivi\Documents\GitHub\musee_de_la_vie\docs\preproduction\medias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CA675B-24C2-4E96-A0B4-7EBBDCBA5248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4773BDCF-CE66-460C-835C-A6EC8849D8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B878FA59-32A9-43A5-9361-0BF6B1ABC2D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B878FA59-32A9-43A5-9361-0BF6B1ABC2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Contribution de chaque étudiant</t>
   </si>
   <si>
-    <t>25 $</t>
-  </si>
-  <si>
-    <t>125 $</t>
-  </si>
-  <si>
     <t>DÉPENSES</t>
   </si>
   <si>
@@ -60,29 +54,27 @@
     <t>Bouquin</t>
   </si>
   <si>
-    <t>95$</t>
-  </si>
-  <si>
-    <t>20 $</t>
-  </si>
-  <si>
-    <t>75 $ (3J)</t>
-  </si>
-  <si>
-    <t>30$</t>
-  </si>
-  <si>
     <t>TOTAL REVENUS</t>
   </si>
   <si>
     <t>TOTAL DÉPENSES</t>
+  </si>
+  <si>
+    <t>Moulure de bois</t>
+  </si>
+  <si>
+    <t>Coéquipiers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ \ [$$-C0C]_ ;_ * \-#,##0.00\ \ [$$-C0C]_ ;_ * &quot;-&quot;??_ \ [$$-C0C]_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +84,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,16 +127,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,7 +458,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,60 +468,86 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <f>PRODUCT(B3,B2)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <f>SUM(B7,B8,B9)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>IMSUB(B4,B10)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
